--- a/Outputs/5. Budget constrained/Output Files/1250000/Output_11_30.xlsx
+++ b/Outputs/5. Budget constrained/Output Files/1250000/Output_11_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2262697.99186253</v>
+        <v>2259897.164236404</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>40.36809222617124</v>
+      </c>
+      <c r="F2" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="F2" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G2" t="n">
-        <v>15.21022140383137</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>18.28182508062843</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,70 +735,70 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>44.46519227902342</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
         <v>50.48273419507654</v>
-      </c>
-      <c r="F3" t="n">
-        <v>50.48273419507654</v>
-      </c>
-      <c r="G3" t="n">
-        <v>44.46519227902342</v>
-      </c>
-      <c r="H3" t="n">
-        <v>50.48273419507654</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>41.4216011981056</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>8.386866521745219</v>
       </c>
     </row>
     <row r="5">
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="G5" t="n">
-        <v>15.21022140383137</v>
+        <v>40.36809222617124</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>4.097100052852174</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>50.48273419507654</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>50.48273419507654</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>18.28182508062843</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,76 +972,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44.4651922790234</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>44.46519227902342</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="D6" t="n">
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>50.48273419507654</v>
-      </c>
-      <c r="E6" t="n">
-        <v>50.48273419507654</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.386866521745219</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="F7" t="n">
         <v>50.48273419507654</v>
       </c>
       <c r="G7" t="n">
-        <v>50.48273419507654</v>
+        <v>8.386866521745231</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>414.3176289012614</v>
+        <v>170.5260848705076</v>
       </c>
       <c r="H8" t="n">
-        <v>329.3860585239338</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>87.98828897491009</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,13 +1187,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2668442187266</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>157.4777339692868</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.8164375874008</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>107.1449651753856</v>
       </c>
       <c r="I9" t="n">
-        <v>71.24937552638328</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>67.43266540192334</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>92.45315543688974</v>
+        <v>28.00608162778536</v>
       </c>
       <c r="T9" t="n">
         <v>198.0402281239039</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.5490935478503</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>142.1617634591414</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>161.4492408068305</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>184.6370994772308</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,13 +1531,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>60.11729550773727</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229326</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1819,13 +1819,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>220.6346102953135</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>224.1675592379401</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2005,13 +2005,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="E19" t="n">
-        <v>38.19083539427148</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2050,7 +2050,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>130.5513683573767</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>78.58522891595192</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>159.213275280683</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.66054613217656</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>135.5636880601543</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>82.52140782073276</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>209.9229247978751</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>170.8317276803708</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>108.5813113004299</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
-        <v>91.89996056624757</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>255.2269336503903</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3904,16 +3904,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>150.4550614441516</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4031,7 +4031,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4141,19 +4141,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4192,13 +4192,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>192.9569204599011</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81.47912519365818</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="C2" t="n">
-        <v>81.47912519365818</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="D2" t="n">
-        <v>81.47912519365818</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="E2" t="n">
-        <v>30.48646439055056</v>
+        <v>110.1624252436922</v>
       </c>
       <c r="F2" t="n">
-        <v>23.54096364134708</v>
+        <v>59.16976444058463</v>
       </c>
       <c r="G2" t="n">
         <v>8.177103637477007</v>
@@ -4334,13 +4334,13 @@
         <v>54.01652558873189</v>
       </c>
       <c r="L2" t="n">
-        <v>103.9944324418577</v>
+        <v>54.01652558873189</v>
       </c>
       <c r="M2" t="n">
-        <v>103.9944324418577</v>
+        <v>54.01652558873189</v>
       </c>
       <c r="N2" t="n">
-        <v>103.9944324418577</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="O2" t="n">
         <v>151.9530299271804</v>
@@ -4355,25 +4355,25 @@
         <v>201.9309367803062</v>
       </c>
       <c r="S2" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="T2" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="U2" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="V2" t="n">
-        <v>183.4644467998734</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="W2" t="n">
-        <v>132.4717859967658</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="X2" t="n">
-        <v>132.4717859967658</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="Y2" t="n">
-        <v>81.47912519365818</v>
+        <v>150.9382759771985</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>201.9309367803062</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="C3" t="n">
-        <v>201.9309367803062</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="D3" t="n">
-        <v>201.9309367803062</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="E3" t="n">
-        <v>150.9382759771985</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="F3" t="n">
-        <v>99.94561517409093</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="G3" t="n">
-        <v>55.03127953871374</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="H3" t="n">
         <v>4.038618735606123</v>
@@ -4407,25 +4407,25 @@
         <v>4.038618735606123</v>
       </c>
       <c r="J3" t="n">
-        <v>7.929436376304878</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="K3" t="n">
-        <v>57.90734322943065</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="L3" t="n">
-        <v>107.8852500825564</v>
+        <v>54.01652558873189</v>
       </c>
       <c r="M3" t="n">
-        <v>107.8852500825564</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="N3" t="n">
-        <v>157.8631569356822</v>
+        <v>151.9530299271804</v>
       </c>
       <c r="O3" t="n">
-        <v>157.8631569356822</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="P3" t="n">
-        <v>157.8631569356822</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="Q3" t="n">
         <v>201.9309367803062</v>
@@ -4446,13 +4446,13 @@
         <v>201.9309367803062</v>
       </c>
       <c r="W3" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="X3" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="Y3" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>114.4955226870186</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="C4" t="n">
-        <v>114.4955226870186</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="D4" t="n">
-        <v>114.4955226870186</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="E4" t="n">
-        <v>114.4955226870186</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="F4" t="n">
-        <v>114.4955226870186</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="G4" t="n">
-        <v>114.4955226870186</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="H4" t="n">
-        <v>114.4955226870186</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="I4" t="n">
-        <v>72.65552147681089</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="J4" t="n">
-        <v>21.66286067370327</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="K4" t="n">
         <v>4.038618735606123</v>
@@ -4507,31 +4507,31 @@
         <v>165.4881834901262</v>
       </c>
       <c r="Q4" t="n">
-        <v>114.4955226870186</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="R4" t="n">
-        <v>114.4955226870186</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="S4" t="n">
-        <v>114.4955226870186</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="T4" t="n">
-        <v>114.4955226870186</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="U4" t="n">
-        <v>114.4955226870186</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="V4" t="n">
-        <v>114.4955226870186</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="W4" t="n">
-        <v>114.4955226870186</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="X4" t="n">
-        <v>114.4955226870186</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="Y4" t="n">
-        <v>114.4955226870186</v>
+        <v>157.016601144929</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>81.47912519365818</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="C5" t="n">
-        <v>81.47912519365818</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="D5" t="n">
-        <v>81.47912519365818</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="E5" t="n">
-        <v>81.47912519365818</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="F5" t="n">
-        <v>74.5336244444547</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="G5" t="n">
-        <v>59.16976444058463</v>
+        <v>8.177103637477007</v>
       </c>
       <c r="H5" t="n">
-        <v>59.16976444058463</v>
+        <v>8.177103637477007</v>
       </c>
       <c r="I5" t="n">
         <v>8.177103637477007</v>
@@ -4571,16 +4571,16 @@
         <v>54.01652558873189</v>
       </c>
       <c r="L5" t="n">
-        <v>103.9944324418577</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="M5" t="n">
-        <v>153.9723392949834</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="N5" t="n">
-        <v>201.9309367803062</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="O5" t="n">
-        <v>201.9309367803062</v>
+        <v>151.9530299271804</v>
       </c>
       <c r="P5" t="n">
         <v>201.9309367803062</v>
@@ -4589,7 +4589,7 @@
         <v>201.9309367803062</v>
       </c>
       <c r="R5" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="S5" t="n">
         <v>150.9382759771985</v>
@@ -4598,19 +4598,19 @@
         <v>150.9382759771985</v>
       </c>
       <c r="U5" t="n">
+        <v>150.9382759771985</v>
+      </c>
+      <c r="V5" t="n">
+        <v>150.9382759771985</v>
+      </c>
+      <c r="W5" t="n">
+        <v>150.9382759771985</v>
+      </c>
+      <c r="X5" t="n">
         <v>99.94561517409093</v>
       </c>
-      <c r="V5" t="n">
+      <c r="Y5" t="n">
         <v>99.94561517409093</v>
-      </c>
-      <c r="W5" t="n">
-        <v>81.47912519365818</v>
-      </c>
-      <c r="X5" t="n">
-        <v>81.47912519365818</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>81.47912519365818</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.016601144929</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="C6" t="n">
-        <v>106.0239403418214</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="D6" t="n">
-        <v>55.03127953871374</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="E6" t="n">
         <v>4.038618735606123</v>
@@ -4644,25 +4644,25 @@
         <v>4.038618735606123</v>
       </c>
       <c r="J6" t="n">
-        <v>4.038618735606123</v>
+        <v>7.929436376304878</v>
       </c>
       <c r="K6" t="n">
-        <v>4.038618735606123</v>
+        <v>57.90734322943065</v>
       </c>
       <c r="L6" t="n">
-        <v>4.038618735606123</v>
+        <v>107.8852500825564</v>
       </c>
       <c r="M6" t="n">
-        <v>4.038618735606123</v>
+        <v>151.9530299271804</v>
       </c>
       <c r="N6" t="n">
-        <v>54.01652558873189</v>
+        <v>151.9530299271804</v>
       </c>
       <c r="O6" t="n">
-        <v>103.9944324418577</v>
+        <v>151.9530299271804</v>
       </c>
       <c r="P6" t="n">
-        <v>153.9723392949834</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="Q6" t="n">
         <v>201.9309367803062</v>
@@ -4680,16 +4680,16 @@
         <v>201.9309367803062</v>
       </c>
       <c r="V6" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="W6" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="X6" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="Y6" t="n">
-        <v>201.9309367803062</v>
+        <v>99.94561517409093</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>157.016601144929</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="C7" t="n">
-        <v>157.016601144929</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="D7" t="n">
-        <v>157.016601144929</v>
+        <v>114.4955226870186</v>
       </c>
       <c r="E7" t="n">
-        <v>157.016601144929</v>
+        <v>63.50286188391095</v>
       </c>
       <c r="F7" t="n">
-        <v>106.0239403418214</v>
+        <v>12.51020108080333</v>
       </c>
       <c r="G7" t="n">
-        <v>55.03127953871374</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="H7" t="n">
-        <v>55.03127953871374</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="I7" t="n">
         <v>4.038618735606123</v>
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1203.812626106952</v>
+        <v>1737.861818944593</v>
       </c>
       <c r="C8" t="n">
-        <v>1203.812626106952</v>
+        <v>1368.899302004181</v>
       </c>
       <c r="D8" t="n">
-        <v>1203.812626106952</v>
+        <v>1010.633603397431</v>
       </c>
       <c r="E8" t="n">
-        <v>1203.812626106952</v>
+        <v>624.8453507991867</v>
       </c>
       <c r="F8" t="n">
-        <v>792.8267213173444</v>
+        <v>213.8594460095791</v>
       </c>
       <c r="G8" t="n">
-        <v>374.3240658615247</v>
+        <v>41.61087543330876</v>
       </c>
       <c r="H8" t="n">
-        <v>41.61087543330878</v>
+        <v>41.61087543330876</v>
       </c>
       <c r="I8" t="n">
-        <v>41.61087543330878</v>
+        <v>41.61087543330876</v>
       </c>
       <c r="J8" t="n">
-        <v>112.5548425668322</v>
+        <v>112.5548425668321</v>
       </c>
       <c r="K8" t="n">
-        <v>339.6262632213625</v>
+        <v>339.6262632213623</v>
       </c>
       <c r="L8" t="n">
-        <v>673.6050671140458</v>
+        <v>673.6050671140454</v>
       </c>
       <c r="M8" t="n">
         <v>1061.82738274383</v>
@@ -4817,37 +4817,37 @@
         <v>1441.699543768626</v>
       </c>
       <c r="O8" t="n">
-        <v>1755.214415687418</v>
+        <v>1755.214415687417</v>
       </c>
       <c r="P8" t="n">
-        <v>1985.117722539657</v>
+        <v>1985.117722539656</v>
       </c>
       <c r="Q8" t="n">
-        <v>2080.543771665439</v>
+        <v>2080.543771665438</v>
       </c>
       <c r="R8" t="n">
-        <v>2080.543771665439</v>
+        <v>1991.666712094822</v>
       </c>
       <c r="S8" t="n">
-        <v>2080.543771665439</v>
+        <v>1991.666712094822</v>
       </c>
       <c r="T8" t="n">
-        <v>2080.543771665439</v>
+        <v>1991.666712094822</v>
       </c>
       <c r="U8" t="n">
-        <v>2080.543771665439</v>
+        <v>1737.861818944593</v>
       </c>
       <c r="V8" t="n">
-        <v>1749.480884321868</v>
+        <v>1737.861818944593</v>
       </c>
       <c r="W8" t="n">
-        <v>1590.412466171074</v>
+        <v>1737.861818944593</v>
       </c>
       <c r="X8" t="n">
-        <v>1590.412466171074</v>
+        <v>1737.861818944593</v>
       </c>
       <c r="Y8" t="n">
-        <v>1590.412466171074</v>
+        <v>1737.861818944593</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>880.9378153479789</v>
+        <v>778.9975649051522</v>
       </c>
       <c r="C9" t="n">
-        <v>706.4847860668519</v>
+        <v>604.5445356240252</v>
       </c>
       <c r="D9" t="n">
-        <v>557.5503764056007</v>
+        <v>455.6101259627739</v>
       </c>
       <c r="E9" t="n">
-        <v>398.3129214001451</v>
+        <v>296.3726709573184</v>
       </c>
       <c r="F9" t="n">
-        <v>251.7783634270301</v>
+        <v>149.8381129842033</v>
       </c>
       <c r="G9" t="n">
-        <v>113.5799416215747</v>
+        <v>149.8381129842033</v>
       </c>
       <c r="H9" t="n">
-        <v>113.5799416215747</v>
+        <v>41.61087543330876</v>
       </c>
       <c r="I9" t="n">
-        <v>41.61087543330878</v>
+        <v>41.61087543330876</v>
       </c>
       <c r="J9" t="n">
-        <v>41.61087543330878</v>
+        <v>90.17123656020198</v>
       </c>
       <c r="K9" t="n">
-        <v>251.2291102945015</v>
+        <v>299.7894714213946</v>
       </c>
       <c r="L9" t="n">
-        <v>492.5685204620472</v>
+        <v>643.0514529759783</v>
       </c>
       <c r="M9" t="n">
-        <v>945.1182839548593</v>
+        <v>1095.60121646879</v>
       </c>
       <c r="N9" t="n">
-        <v>1425.352706470935</v>
+        <v>1575.835638984866</v>
       </c>
       <c r="O9" t="n">
-        <v>1798.257703412208</v>
+        <v>1662.254711852273</v>
       </c>
       <c r="P9" t="n">
-        <v>2080.543771665439</v>
+        <v>1944.540780105504</v>
       </c>
       <c r="Q9" t="n">
-        <v>2080.543771665439</v>
+        <v>2080.543771665438</v>
       </c>
       <c r="R9" t="n">
-        <v>2012.429968229153</v>
+        <v>2080.543771665438</v>
       </c>
       <c r="S9" t="n">
-        <v>1919.042942535325</v>
+        <v>2052.254800324241</v>
       </c>
       <c r="T9" t="n">
-        <v>1719.002308066735</v>
+        <v>1852.214165855651</v>
       </c>
       <c r="U9" t="n">
-        <v>1719.002308066735</v>
+        <v>1852.214165855651</v>
       </c>
       <c r="V9" t="n">
-        <v>1719.002308066735</v>
+        <v>1617.062057623908</v>
       </c>
       <c r="W9" t="n">
-        <v>1464.764951338534</v>
+        <v>1362.824700895707</v>
       </c>
       <c r="X9" t="n">
-        <v>1256.913451133001</v>
+        <v>1154.973200690174</v>
       </c>
       <c r="Y9" t="n">
-        <v>1049.153152368047</v>
+        <v>947.2129019252202</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>354.4501249353207</v>
+        <v>41.61087543330876</v>
       </c>
       <c r="C10" t="n">
-        <v>354.4501249353207</v>
+        <v>41.61087543330876</v>
       </c>
       <c r="D10" t="n">
-        <v>354.4501249353207</v>
+        <v>41.61087543330876</v>
       </c>
       <c r="E10" t="n">
-        <v>354.4501249353207</v>
+        <v>41.61087543330876</v>
       </c>
       <c r="F10" t="n">
-        <v>354.4501249353207</v>
+        <v>41.61087543330876</v>
       </c>
       <c r="G10" t="n">
-        <v>185.2086163011284</v>
+        <v>41.61087543330876</v>
       </c>
       <c r="H10" t="n">
-        <v>185.2086163011284</v>
+        <v>41.61087543330876</v>
       </c>
       <c r="I10" t="n">
-        <v>41.61087543330878</v>
+        <v>41.61087543330876</v>
       </c>
       <c r="J10" t="n">
-        <v>41.61087543330878</v>
+        <v>41.61087543330876</v>
       </c>
       <c r="K10" t="n">
-        <v>70.38978446187215</v>
+        <v>70.38978446187208</v>
       </c>
       <c r="L10" t="n">
-        <v>162.7433143898049</v>
+        <v>162.7433143898048</v>
       </c>
       <c r="M10" t="n">
-        <v>270.5062858729253</v>
+        <v>270.5062858729251</v>
       </c>
       <c r="N10" t="n">
-        <v>381.1415111781146</v>
+        <v>381.1415111781143</v>
       </c>
       <c r="O10" t="n">
-        <v>467.3147530630798</v>
+        <v>467.3147530630795</v>
       </c>
       <c r="P10" t="n">
-        <v>517.5301661543414</v>
+        <v>517.5301661543409</v>
       </c>
       <c r="Q10" t="n">
-        <v>517.5301661543414</v>
+        <v>517.5301661543409</v>
       </c>
       <c r="R10" t="n">
-        <v>517.5301661543414</v>
+        <v>517.5301661543409</v>
       </c>
       <c r="S10" t="n">
-        <v>354.4501249353207</v>
+        <v>517.5301661543409</v>
       </c>
       <c r="T10" t="n">
-        <v>354.4501249353207</v>
+        <v>517.5301661543409</v>
       </c>
       <c r="U10" t="n">
-        <v>354.4501249353207</v>
+        <v>517.5301661543409</v>
       </c>
       <c r="V10" t="n">
-        <v>354.4501249353207</v>
+        <v>517.5301661543409</v>
       </c>
       <c r="W10" t="n">
-        <v>354.4501249353207</v>
+        <v>228.1129961173803</v>
       </c>
       <c r="X10" t="n">
-        <v>354.4501249353207</v>
+        <v>41.61087543330876</v>
       </c>
       <c r="Y10" t="n">
-        <v>354.4501249353207</v>
+        <v>41.61087543330876</v>
       </c>
     </row>
     <row r="11">
@@ -5024,10 +5024,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,19 +5036,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5121,22 +5121,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2386.238542663355</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2203.383708318259</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T13" t="n">
-        <v>1983.7822433412</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1983.7822433412</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1729.097755135313</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5258,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>576.8388927589106</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C16" t="n">
-        <v>407.9027098310036</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D16" t="n">
-        <v>407.9027098310036</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310036</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
         <v>261.0127623330919</v>
@@ -5467,19 +5467,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W16" t="n">
-        <v>1207.269487630698</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X16" t="n">
-        <v>979.2799367326804</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y16" t="n">
-        <v>758.4873575891503</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5595,19 +5595,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>989.3306680894883</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C19" t="n">
-        <v>820.3944851615814</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D19" t="n">
-        <v>670.2778457492457</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429803</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817745</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919728</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>1170.979132919728</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,61 +5738,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>768.5380889459582</v>
+        <v>954.2476448606602</v>
       </c>
       <c r="C22" t="n">
-        <v>599.6019060180513</v>
+        <v>785.3114619327533</v>
       </c>
       <c r="D22" t="n">
-        <v>449.4852666057155</v>
+        <v>635.1948225204176</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578603</v>
+        <v>487.2817289380245</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578603</v>
+        <v>340.3917814401141</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578603</v>
+        <v>173.195682154994</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>173.195682154994</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817745</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X22" t="n">
-        <v>1170.979132919728</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y22" t="n">
-        <v>950.1865537761979</v>
+        <v>1135.8961096909</v>
       </c>
     </row>
     <row r="23">
@@ -5966,25 +5966,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6005,31 +6005,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516144</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>784.581113480496</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>615.6449305525891</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>465.5282911402534</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578603</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578603</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2286.141593397752</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2066.540128420693</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1777.464901764891</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1522.780413559004</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1233.363243522043</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>1005.373692624026</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>784.581113480496</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6224,10 +6224,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M27" t="n">
-        <v>740.5562989961525</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N27" t="n">
-        <v>1368.154262550759</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>1920.063992790046</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1840.528062267928</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1585.843574062041</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1296.426404025081</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1068.436853127063</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>847.6442739835331</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1702.079034721979</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>719.5738700011939</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>550.637687073287</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>550.637687073287</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U31" t="n">
-        <v>1894.106123115829</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V31" t="n">
-        <v>1639.421634909942</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W31" t="n">
-        <v>1350.004464872981</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X31" t="n">
-        <v>1122.014913974964</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y31" t="n">
-        <v>901.2223348314336</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>315.9123021921482</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>315.9123021921482</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898187001</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6883,25 +6883,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>2264.108249235165</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>2009.423761029278</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>1720.006590992317</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>1492.0170400943</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>1271.22446095077</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,19 +6947,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1965.532750177311</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>631.5645865368208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>481.447947124485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>333.5348535420919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>186.6449060441816</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>186.6449060441816</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,19 +7160,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7181,40 +7181,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>244.2098454714574</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>739.5354516872161</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.052681478297</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038356</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797757</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855605</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7403,10 +7403,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7424,25 +7424,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1337.934786622704</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1889.844516861991</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2313.467666357059</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>866.4638174991043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1786.311582407852</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1496.894412370891</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1268.904861472874</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
         <v>1948.813509611463</v>
@@ -7640,10 +7640,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7664,22 +7664,22 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7691,7 +7691,7 @@
         <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>868.6673633290469</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C46" t="n">
-        <v>699.73118040114</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D46" t="n">
-        <v>549.6145409888043</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7831,25 +7831,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1755.431557602304</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1466.014387565343</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>1271.108407302817</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>1050.315828159287</v>
+        <v>945.402603663004</v>
       </c>
     </row>
   </sheetData>
@@ -7982,16 +7982,16 @@
         <v>258.8041889468121</v>
       </c>
       <c r="L2" t="n">
-        <v>271.649412930509</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M2" t="n">
         <v>214.1012135983212</v>
       </c>
       <c r="N2" t="n">
-        <v>212.9051825663978</v>
+        <v>261.34821032935</v>
       </c>
       <c r="O2" t="n">
-        <v>262.9533152362218</v>
+        <v>264.993021668346</v>
       </c>
       <c r="P2" t="n">
         <v>268.4117974997384</v>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K3" t="n">
-        <v>180.3309306186853</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L3" t="n">
         <v>178.2892129380686</v>
       </c>
       <c r="M3" t="n">
-        <v>129.5917403577182</v>
+        <v>178.0347681206704</v>
       </c>
       <c r="N3" t="n">
         <v>168.9501955242219</v>
       </c>
       <c r="O3" t="n">
-        <v>130.8188201934042</v>
+        <v>181.3015543884808</v>
       </c>
       <c r="P3" t="n">
         <v>124.5219861368073</v>
       </c>
       <c r="Q3" t="n">
-        <v>178.1759897207746</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,19 +8219,19 @@
         <v>258.8041889468121</v>
       </c>
       <c r="L5" t="n">
-        <v>271.649412930509</v>
+        <v>269.6097064983847</v>
       </c>
       <c r="M5" t="n">
-        <v>264.5839477933977</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N5" t="n">
-        <v>261.34821032935</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O5" t="n">
-        <v>214.5102874732696</v>
+        <v>264.993021668346</v>
       </c>
       <c r="P5" t="n">
-        <v>217.9290633046618</v>
+        <v>268.4117974997384</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>129.8481964236088</v>
+        <v>180.3309306186853</v>
       </c>
       <c r="L6" t="n">
-        <v>127.8064787429921</v>
+        <v>178.2892129380686</v>
       </c>
       <c r="M6" t="n">
-        <v>129.5917403577182</v>
+        <v>174.1046492916817</v>
       </c>
       <c r="N6" t="n">
-        <v>168.9501955242219</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O6" t="n">
-        <v>181.3015543884808</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P6" t="n">
         <v>175.0047203318838</v>
       </c>
       <c r="Q6" t="n">
-        <v>182.1061085497632</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>77.04016551526414</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>267.8882529933197</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>104.4825979899963</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>72.70052858440042</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11312,13 +11312,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.25795120238439</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>62.35543909865092</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>106.0841272570752</v>
       </c>
       <c r="E19" t="n">
-        <v>108.2431272522977</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>15.88259428919244</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2.680607402613617</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,13 +24178,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>21.81301072096156</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>150.6207863290898</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>203.6630665685114</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>76.60007353871586</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>9.000252501566507</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,13 +25123,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>110.0033420516649</v>
       </c>
     </row>
     <row r="35">
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
-        <v>48.39475227997632</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25597,13 +25597,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>30.95754073885388</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25685,7 +25685,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25792,16 +25792,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>101.6825818796764</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>25.7450400779617</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,13 +26080,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>32.7527349291361</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>813855.9833051416</v>
+        <v>813855.9833051418</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>813855.9833051419</v>
+        <v>813855.9833051418</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>813855.9833051419</v>
+        <v>813855.9833051418</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051419</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051419</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>813855.9833051419</v>
+        <v>813855.9833051418</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>813855.9833051419</v>
+        <v>813855.9833051418</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>813855.9833051419</v>
+        <v>813855.9833051417</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>813855.9833051419</v>
+        <v>813855.9833051418</v>
       </c>
     </row>
     <row r="16">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="E2" t="n">
         <v>605359.9497675044</v>
@@ -26326,13 +26326,13 @@
         <v>605359.9497675045</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.949767504</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="J2" t="n">
         <v>605359.9497675044</v>
@@ -26341,16 +26341,16 @@
         <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="N2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="O2" t="n">
         <v>605359.9497675044</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605359.9497675042</v>
       </c>
       <c r="P2" t="n">
         <v>605359.9497675041</v>
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>336040.0192047093</v>
+        <v>336040.019204709</v>
       </c>
       <c r="E3" t="n">
         <v>1097008.861672798</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>13208.50450573655</v>
+        <v>13208.50450573661</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>391271.0571897241</v>
+        <v>391260.7020532297</v>
       </c>
       <c r="C4" t="n">
-        <v>391271.0571897241</v>
+        <v>391260.7020532297</v>
       </c>
       <c r="D4" t="n">
-        <v>282480.3489842098</v>
+        <v>282464.8859711011</v>
       </c>
       <c r="E4" t="n">
-        <v>7408.719013653778</v>
+        <v>7407.632147717793</v>
       </c>
       <c r="F4" t="n">
-        <v>7408.719013653778</v>
+        <v>7407.632147717793</v>
       </c>
       <c r="G4" t="n">
-        <v>7408.71901365379</v>
+        <v>7407.632147717784</v>
       </c>
       <c r="H4" t="n">
-        <v>7408.719013653807</v>
+        <v>7407.632147717784</v>
       </c>
       <c r="I4" t="n">
-        <v>7408.719013653792</v>
+        <v>7407.632147717793</v>
       </c>
       <c r="J4" t="n">
-        <v>7408.71901365378</v>
+        <v>7407.632147717796</v>
       </c>
       <c r="K4" t="n">
-        <v>7408.719013653788</v>
+        <v>7407.632147717794</v>
       </c>
       <c r="L4" t="n">
-        <v>7408.71901365379</v>
+        <v>7407.632147717784</v>
       </c>
       <c r="M4" t="n">
-        <v>7408.719013653807</v>
+        <v>7407.632147717797</v>
       </c>
       <c r="N4" t="n">
-        <v>7408.71901365381</v>
+        <v>7407.632147717784</v>
       </c>
       <c r="O4" t="n">
-        <v>7408.719013653803</v>
+        <v>7407.632147717793</v>
       </c>
       <c r="P4" t="n">
-        <v>7408.719013653768</v>
+        <v>7407.632147717805</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>37198.64198163266</v>
       </c>
       <c r="D5" t="n">
-        <v>70593.86306519792</v>
+        <v>70593.8630651979</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>148217.7081642343</v>
+        <v>148228.0633007285</v>
       </c>
       <c r="C6" t="n">
-        <v>187311.6282268557</v>
+        <v>187321.9833633502</v>
       </c>
       <c r="D6" t="n">
-        <v>-73332.90385590433</v>
+        <v>-73317.4408427959</v>
       </c>
       <c r="E6" t="n">
-        <v>-600180.1607428547</v>
+        <v>-600213.8118023544</v>
       </c>
       <c r="F6" t="n">
-        <v>496828.7009299438</v>
+        <v>496795.0498704439</v>
       </c>
       <c r="G6" t="n">
-        <v>496828.7009299435</v>
+        <v>496795.0498704434</v>
       </c>
       <c r="H6" t="n">
-        <v>496828.7009299434</v>
+        <v>496795.0498704435</v>
       </c>
       <c r="I6" t="n">
-        <v>496828.7009299434</v>
+        <v>496795.0498704436</v>
       </c>
       <c r="J6" t="n">
-        <v>483620.1964242069</v>
+        <v>483586.5453647071</v>
       </c>
       <c r="K6" t="n">
-        <v>496828.7009299433</v>
+        <v>496795.0498704436</v>
       </c>
       <c r="L6" t="n">
-        <v>377963.7006814652</v>
+        <v>377930.0496219654</v>
       </c>
       <c r="M6" t="n">
-        <v>334205.0622208869</v>
+        <v>334171.4111613873</v>
       </c>
       <c r="N6" t="n">
-        <v>496828.7009299434</v>
+        <v>496795.0498704436</v>
       </c>
       <c r="O6" t="n">
-        <v>496828.7009299433</v>
+        <v>496795.0498704438</v>
       </c>
       <c r="P6" t="n">
-        <v>496828.7009299432</v>
+        <v>496795.0498704435</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>23.01338268678932</v>
       </c>
       <c r="D3" t="n">
-        <v>245.0457677010664</v>
+        <v>245.0457677010662</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>50.48273419507654</v>
       </c>
       <c r="D4" t="n">
-        <v>520.1359429163598</v>
+        <v>520.1359429163596</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,10 +26805,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26820,16 +26820,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>222.032385014277</v>
+        <v>222.0323850142768</v>
       </c>
       <c r="E3" t="n">
         <v>1122.929732640608</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>469.6532087212832</v>
+        <v>469.6532087212831</v>
       </c>
       <c r="E4" t="n">
-        <v>652.5723451832886</v>
+        <v>652.5723451832888</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>50.48273419507632</v>
+        <v>50.48273419507655</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>469.6532087212832</v>
+        <v>469.6532087212831</v>
       </c>
       <c r="M4" t="n">
         <v>652.5723451832888</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>469.6532087212832</v>
+        <v>469.6532087212831</v>
       </c>
       <c r="M4" t="n">
-        <v>652.5723451832886</v>
+        <v>652.5723451832888</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>331.4476358771852</v>
+        <v>341.5622778460905</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>356.3933115466349</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>364.7274872087548</v>
       </c>
       <c r="H2" t="n">
         <v>338.5273214908784</v>
@@ -27427,7 +27427,7 @@
         <v>144.0576027644702</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>156.4291245048363</v>
       </c>
       <c r="T2" t="n">
         <v>222.6908602868995</v>
@@ -27436,16 +27436,16 @@
         <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
-        <v>309.4704333895065</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>298.7582345223365</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>335.755204460977</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,25 +27455,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>116.0504494547908</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>122.2257647932392</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>102.9798732856153</v>
       </c>
       <c r="E3" t="n">
-        <v>107.1623462603244</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>94.58647819830733</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>92.82882440067223</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>61.27463958220945</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
         <v>87.69233988828964</v>
@@ -27518,7 +27518,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>201.2122489658431</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>129.3492459868608</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>98.13273882313581</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>95.95122845149263</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,13 +27555,13 @@
         <v>161.8582038473137</v>
       </c>
       <c r="I4" t="n">
-        <v>112.7808693041052</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J4" t="n">
-        <v>39.94242826331492</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>32.20428827091266</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R4" t="n">
         <v>175.4274210366964</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>210.1977868303496</v>
       </c>
     </row>
     <row r="5">
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>356.3933115466349</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>374.8421291776601</v>
       </c>
       <c r="H5" t="n">
         <v>338.5273214908784</v>
       </c>
       <c r="I5" t="n">
-        <v>156.4264279942944</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>144.0576027644702</v>
+        <v>93.57486856939362</v>
       </c>
       <c r="S5" t="n">
-        <v>156.4291245048363</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T5" t="n">
         <v>222.6908602868995</v>
       </c>
       <c r="U5" t="n">
-        <v>200.8555174238556</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>330.9591436367846</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>319.2483664833925</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>122.0679913708439</v>
+        <v>116.0504494547908</v>
       </c>
       <c r="C6" t="n">
-        <v>122.2257647932392</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>96.96233136956221</v>
+        <v>102.9798732856153</v>
       </c>
       <c r="E6" t="n">
-        <v>107.1623462603244</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27752,7 +27752,7 @@
         <v>225.9381254702172</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>182.3178529543487</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27761,7 +27761,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>155.1999615822278</v>
       </c>
     </row>
     <row r="7">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>171.4451136601921</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>98.13273882313581</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>95.95122845149263</v>
       </c>
       <c r="F7" t="n">
         <v>94.9383138278547</v>
       </c>
       <c r="G7" t="n">
-        <v>117.4667456208323</v>
+        <v>159.5626132941636</v>
       </c>
       <c r="H7" t="n">
         <v>161.8582038473137</v>
       </c>
       <c r="I7" t="n">
-        <v>103.7197363071342</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J7" t="n">
         <v>90.42516245839145</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>243.7915440307538</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.3860585239338</v>
       </c>
       <c r="I8" t="n">
-        <v>172.4974897340426</v>
+        <v>172.4974897340427</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>87.98828897491003</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>186.5719070475999</v>
@@ -27907,13 +27907,13 @@
         <v>218.7835366068995</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2668442187266</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>191.7632347481262</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27944,13 +27944,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.8164375874008</v>
       </c>
       <c r="H9" t="n">
-        <v>107.1449651753856</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>71.24937552638329</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>67.43266540192337</v>
       </c>
       <c r="S9" t="n">
-        <v>69.43974372153284</v>
+        <v>133.8868175306372</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -27989,7 +27989,7 @@
         <v>225.9067057930926</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.5490935478503</v>
       </c>
       <c r="H10" t="n">
         <v>158.2984059367569</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>142.1617634591414</v>
       </c>
       <c r="J10" t="n">
-        <v>62.11785330665322</v>
+        <v>62.11785330665325</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>49.16013232883337</v>
+        <v>49.1601323288334</v>
       </c>
       <c r="R10" t="n">
         <v>157.4245984747191</v>
       </c>
       <c r="S10" t="n">
-        <v>54.8664926943558</v>
+        <v>216.3157335011863</v>
       </c>
       <c r="T10" t="n">
         <v>226.0575318738634</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>41.07255591180635</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30402,7 +30402,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -30751,7 +30751,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9851086138736328</v>
+        <v>0.985108613873632</v>
       </c>
       <c r="H8" t="n">
         <v>10.08874359183334</v>
       </c>
       <c r="I8" t="n">
-        <v>37.97839983636327</v>
+        <v>37.97839983636324</v>
       </c>
       <c r="J8" t="n">
-        <v>83.60986221675732</v>
+        <v>83.60986221675725</v>
       </c>
       <c r="K8" t="n">
-        <v>125.3095098420282</v>
+        <v>125.3095098420281</v>
       </c>
       <c r="L8" t="n">
-        <v>155.4575275838635</v>
+        <v>155.4575275838633</v>
       </c>
       <c r="M8" t="n">
-        <v>172.9764528958387</v>
+        <v>172.9764528958385</v>
       </c>
       <c r="N8" t="n">
-        <v>175.7753927450071</v>
+        <v>175.775392745007</v>
       </c>
       <c r="O8" t="n">
-        <v>165.9797189658012</v>
+        <v>165.9797189658011</v>
       </c>
       <c r="P8" t="n">
-        <v>141.6598500607959</v>
+        <v>141.6598500607957</v>
       </c>
       <c r="Q8" t="n">
-        <v>106.3806478264463</v>
+        <v>106.3806478264462</v>
       </c>
       <c r="R8" t="n">
-        <v>61.88082896623964</v>
+        <v>61.88082896623959</v>
       </c>
       <c r="S8" t="n">
-        <v>22.44816253864543</v>
+        <v>22.44816253864541</v>
       </c>
       <c r="T8" t="n">
-        <v>4.31231295723183</v>
+        <v>4.312312957231827</v>
       </c>
       <c r="U8" t="n">
-        <v>0.07880868910989061</v>
+        <v>0.07880868910989054</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5270795758098409</v>
+        <v>0.5270795758098404</v>
       </c>
       <c r="H9" t="n">
-        <v>5.090479061110832</v>
+        <v>5.090479061110828</v>
       </c>
       <c r="I9" t="n">
-        <v>18.1472573250318</v>
+        <v>18.14725732503179</v>
       </c>
       <c r="J9" t="n">
-        <v>49.79746115140256</v>
+        <v>49.79746115140252</v>
       </c>
       <c r="K9" t="n">
-        <v>85.11179273066189</v>
+        <v>85.11179273066182</v>
       </c>
       <c r="L9" t="n">
-        <v>114.4433087739745</v>
+        <v>114.4433087739744</v>
       </c>
       <c r="M9" t="n">
-        <v>133.5499433970811</v>
+        <v>133.549943397081</v>
       </c>
       <c r="N9" t="n">
-        <v>137.0846130085428</v>
+        <v>137.0846130085427</v>
       </c>
       <c r="O9" t="n">
-        <v>125.4056392498089</v>
+        <v>125.4056392498088</v>
       </c>
       <c r="P9" t="n">
-        <v>100.6490814544248</v>
+        <v>100.6490814544247</v>
       </c>
       <c r="Q9" t="n">
-        <v>67.2812455016211</v>
+        <v>67.28124550162104</v>
       </c>
       <c r="R9" t="n">
-        <v>32.72516875071978</v>
+        <v>32.72516875071975</v>
       </c>
       <c r="S9" t="n">
-        <v>9.790271945415238</v>
+        <v>9.790271945415231</v>
       </c>
       <c r="T9" t="n">
-        <v>2.124500570917735</v>
+        <v>2.124500570917733</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03467628788222638</v>
+        <v>0.03467628788222635</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4418858106084803</v>
+        <v>0.4418858106084799</v>
       </c>
       <c r="H10" t="n">
-        <v>3.928766570682673</v>
+        <v>3.92876657068267</v>
       </c>
       <c r="I10" t="n">
-        <v>13.28871146811685</v>
+        <v>13.28871146811684</v>
       </c>
       <c r="J10" t="n">
-        <v>31.24132681001955</v>
+        <v>31.24132681001953</v>
       </c>
       <c r="K10" t="n">
-        <v>51.33909690523978</v>
+        <v>51.33909690523974</v>
       </c>
       <c r="L10" t="n">
-        <v>65.69636860628262</v>
+        <v>65.69636860628256</v>
       </c>
       <c r="M10" t="n">
-        <v>69.26760938474567</v>
+        <v>69.26760938474561</v>
       </c>
       <c r="N10" t="n">
-        <v>67.62058045429595</v>
+        <v>67.62058045429589</v>
       </c>
       <c r="O10" t="n">
-        <v>62.45855075764231</v>
+        <v>62.45855075764226</v>
       </c>
       <c r="P10" t="n">
-        <v>53.44408022122926</v>
+        <v>53.44408022122922</v>
       </c>
       <c r="Q10" t="n">
-        <v>37.00191092286101</v>
+        <v>37.00191092286099</v>
       </c>
       <c r="R10" t="n">
-        <v>19.86879290245039</v>
+        <v>19.86879290245037</v>
       </c>
       <c r="S10" t="n">
-        <v>7.700864535785967</v>
+        <v>7.700864535785961</v>
       </c>
       <c r="T10" t="n">
-        <v>1.888057554418052</v>
+        <v>1.88805755441805</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02410286239682622</v>
+        <v>0.0241028623968262</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,31 +32075,31 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>364.3208035245835</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,22 +32315,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>359.1374415194863</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,25 +32792,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>244.0266243181832</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>309.7666854143577</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>500.7380235181012</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>301.6445156724565</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>209.2370040367373</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33515,13 +33515,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>463.4318227833011</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>287.9685048518523</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33995,7 +33995,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34211,7 +34211,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>344.9857809048118</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34451,25 +34451,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>263.7590256391496</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34702,16 +34702,16 @@
         <v>50.48273419507654</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>48.44302776295223</v>
+      </c>
+      <c r="O2" t="n">
         <v>50.48273419507654</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>48.44302776295223</v>
       </c>
       <c r="P2" t="n">
         <v>50.48273419507654</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.930118828988642</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>50.48273419507654</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>48.44302776295223</v>
       </c>
       <c r="N3" t="n">
         <v>50.48273419507654</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.51290893396361</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,19 +34939,19 @@
         <v>50.48273419507654</v>
       </c>
       <c r="L5" t="n">
+        <v>48.44302776295223</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
         <v>50.48273419507654</v>
-      </c>
-      <c r="N5" t="n">
-        <v>48.44302776295223</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>3.930118828988642</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>44.51290893396359</v>
       </c>
       <c r="N6" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>50.48273419507654</v>
       </c>
       <c r="Q6" t="n">
-        <v>48.44302776295223</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>71.6605728621448</v>
+        <v>71.66057286214473</v>
       </c>
       <c r="K8" t="n">
-        <v>229.3650713682124</v>
+        <v>229.3650713682123</v>
       </c>
       <c r="L8" t="n">
-        <v>337.3523271643267</v>
+        <v>337.3523271643265</v>
       </c>
       <c r="M8" t="n">
-        <v>392.1437531613984</v>
+        <v>392.1437531613983</v>
       </c>
       <c r="N8" t="n">
-        <v>383.7092535604004</v>
+        <v>383.7092535604003</v>
       </c>
       <c r="O8" t="n">
-        <v>316.6816888068598</v>
+        <v>316.6816888068597</v>
       </c>
       <c r="P8" t="n">
-        <v>232.225562477009</v>
+        <v>232.2255624770089</v>
       </c>
       <c r="Q8" t="n">
-        <v>96.38994861190153</v>
+        <v>96.38994861190145</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>49.05086982514466</v>
       </c>
       <c r="K9" t="n">
-        <v>211.7355907688815</v>
+        <v>211.7355907688814</v>
       </c>
       <c r="L9" t="n">
-        <v>243.77718198742</v>
+        <v>346.7292742975594</v>
       </c>
       <c r="M9" t="n">
-        <v>457.1209732250627</v>
+        <v>457.1209732250626</v>
       </c>
       <c r="N9" t="n">
-        <v>485.085275268763</v>
+        <v>485.0852752687629</v>
       </c>
       <c r="O9" t="n">
-        <v>376.671714082094</v>
+        <v>87.29199279536067</v>
       </c>
       <c r="P9" t="n">
         <v>285.1374426800317</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>137.3767591514486</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>29.06960507935693</v>
+        <v>29.06960507935689</v>
       </c>
       <c r="L10" t="n">
-        <v>93.28639386659876</v>
+        <v>93.2863938665987</v>
       </c>
       <c r="M10" t="n">
-        <v>108.8514863465863</v>
+        <v>108.8514863465862</v>
       </c>
       <c r="N10" t="n">
         <v>111.7527528335245</v>
       </c>
       <c r="O10" t="n">
-        <v>87.04367867168199</v>
+        <v>87.04367867168193</v>
       </c>
       <c r="P10" t="n">
-        <v>50.72263948612275</v>
+        <v>50.72263948612271</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35668,7 +35668,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>224.339029438562</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35963,22 +35963,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36373,13 +36373,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683826</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>101.8925903961649</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>171.2123056344834</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>366.763616103771</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>159.048271228012</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>71.39556506237828</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37163,13 +37163,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37315,7 +37315,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193529</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>320.8355783388566</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683826</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>150.1270658774933</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295468</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243171</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>205.0040068187903</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38032,13 +38032,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683826</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>132.4173135558163</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
